--- a/Excel Data Visualization & Pivot Table Analytics/Data Visulization and Pivot Table Solution.xlsx
+++ b/Excel Data Visualization & Pivot Table Analytics/Data Visulization and Pivot Table Solution.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
   <si>
     <t>Order ID</t>
   </si>
@@ -724,8 +724,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -811,21 +810,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -846,21 +845,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1058,35 +1057,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$4:$A$7</c:f>
+              <c:f>'Pivot Table'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fashion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Home Decor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$4:$B$7</c:f>
+              <c:f>'Pivot Table'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80765</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24276</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21714</c:v>
+                  <c:v>17896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1327,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.65</c:v>
+                  <c:v>4.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.6875</c:v>
@@ -1362,11 +1349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="796751952"/>
-        <c:axId val="796759024"/>
+        <c:axId val="-1391970768"/>
+        <c:axId val="-1391969136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="796751952"/>
+        <c:axId val="-1391970768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796759024"/>
+        <c:crossAx val="-1391969136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="796759024"/>
+        <c:axId val="-1391969136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796751952"/>
+        <c:crossAx val="-1391970768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,7 +1788,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14661</c:v>
+                  <c:v>14810</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4850</c:v>
@@ -2090,10 +2077,10 @@
                   <c:v>8585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14585</c:v>
+                  <c:v>11586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34984</c:v>
+                  <c:v>33485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,11 +2095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="786923488"/>
-        <c:axId val="786924576"/>
+        <c:axId val="-1391972944"/>
+        <c:axId val="-1391972400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="786923488"/>
+        <c:axId val="-1391972944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="786924576"/>
+        <c:crossAx val="-1391972400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="786924576"/>
+        <c:axId val="-1391972400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="786923488"/>
+        <c:crossAx val="-1391972944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2399,7 +2386,7 @@
                   <c:v>26170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55312</c:v>
+                  <c:v>50814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,11 +2401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="928973360"/>
-        <c:axId val="928982064"/>
+        <c:axId val="-1391971312"/>
+        <c:axId val="-1391970224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="928973360"/>
+        <c:axId val="-1391971312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928982064"/>
+        <c:crossAx val="-1391970224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2469,7 +2456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928982064"/>
+        <c:axId val="-1391970224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928973360"/>
+        <c:crossAx val="-1391971312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,7 +2759,7 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5551</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1050</c:v>
@@ -2823,11 +2810,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="935073472"/>
-        <c:axId val="935086528"/>
+        <c:axId val="-1392788976"/>
+        <c:axId val="-1392792784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="935073472"/>
+        <c:axId val="-1392788976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935086528"/>
+        <c:crossAx val="-1392792784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,7 +2865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="935086528"/>
+        <c:axId val="-1392792784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935073472"/>
+        <c:crossAx val="-1392788976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6440,8 +6427,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Order Status"/>
@@ -6458,7 +6445,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6512,8 +6499,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Product Name"/>
@@ -6530,7 +6517,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6584,8 +6571,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="City"/>
@@ -6602,7 +6589,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6656,8 +6643,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Category"/>
@@ -6674,7 +6661,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7599,7 +7586,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="H17:I39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7628,9 +7615,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7749,7 +7736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L4:L5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7760,9 +7747,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7792,7 +7779,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="E3:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="10"/>
+        <item x="13"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="26"/>
+        <item x="14"/>
+        <item x="45"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="44"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="43"/>
+        <item x="40"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Discount %" fld="10" subtotal="average" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7857,9 +7973,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7929,8 +8045,424 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="51">
+        <item x="10"/>
+        <item x="13"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="26"/>
+        <item x="14"/>
+        <item x="45"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="44"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="43"/>
+        <item x="40"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="49">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="10"/>
+        <item x="13"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="26"/>
+        <item x="14"/>
+        <item x="45"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="44"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="43"/>
+        <item x="40"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="H3:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -8002,9 +8534,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8094,8 +8626,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E17:F25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -8171,9 +8703,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8239,9 +8771,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E10:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E10:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -8305,9 +8837,9 @@
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8321,15 +8853,9 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -8342,563 +8868,6 @@
     <dataField name="Count of Order Status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="E3:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="10"/>
-        <item x="13"/>
-        <item x="47"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="4"/>
-        <item x="20"/>
-        <item x="26"/>
-        <item x="14"/>
-        <item x="45"/>
-        <item x="8"/>
-        <item x="41"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="44"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="49"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="5"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Discount %" fld="10" subtotal="average" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="51">
-        <item x="10"/>
-        <item x="13"/>
-        <item x="47"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="4"/>
-        <item x="20"/>
-        <item x="26"/>
-        <item x="14"/>
-        <item x="45"/>
-        <item x="8"/>
-        <item x="41"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="44"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="49"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="5"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="10"/>
-        <item x="13"/>
-        <item x="47"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="4"/>
-        <item x="20"/>
-        <item x="26"/>
-        <item x="14"/>
-        <item x="45"/>
-        <item x="8"/>
-        <item x="41"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="44"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="6"/>
-        <item x="49"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="5"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -8923,9 +8892,9 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -8954,7 +8923,6 @@
         <i x="22" s="1"/>
         <i x="27" s="1"/>
         <i x="31" s="1"/>
-        <i x="4" s="1"/>
         <i x="20" s="1"/>
         <i x="26" s="1"/>
         <i x="14" s="1"/>
@@ -8984,7 +8952,6 @@
         <i x="33" s="1"/>
         <i x="36" s="1"/>
         <i x="34" s="1"/>
-        <i x="9" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="37" s="1"/>
@@ -8996,6 +8963,8 @@
         <i x="39" s="1"/>
         <i x="17" s="1"/>
         <i x="0" s="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -9010,13 +8979,13 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="7">
-        <i x="1" s="1"/>
-        <i x="6" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="0" s="1"/>
-        <i x="5" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
+        <i x="5"/>
+        <i x="3"/>
+        <i x="4"/>
+        <i x="6" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -9032,8 +9001,8 @@
     <tabular pivotCacheId="1">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -9315,7 +9284,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:M51"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11479,7 +11448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N61"/>
+  <dimension ref="A3:N59"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
@@ -11487,7 +11456,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" customWidth="1"/>
@@ -11521,19 +11490,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>80765</v>
+        <v>17896</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>3.65</v>
+        <v>4.0555555555555554</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="5">
-        <v>14661</v>
+        <v>14810</v>
       </c>
       <c r="L4" t="s">
         <v>131</v>
@@ -11544,10 +11513,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5">
-        <v>24276</v>
+        <v>17896</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -11562,20 +11531,14 @@
         <v>4850</v>
       </c>
       <c r="L5" s="5">
-        <v>126755</v>
+        <v>122257</v>
       </c>
       <c r="N5">
         <f>GETPIVOTDATA("Total Sales",$L$4)</f>
-        <v>126755</v>
+        <v>122257</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5">
-        <v>21714</v>
-      </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
@@ -11590,23 +11553,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="5">
-        <v>126755</v>
-      </c>
       <c r="E7" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F7" s="5">
-        <v>2.92</v>
+        <v>3.0416666666666665</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="5">
-        <v>23471</v>
+        <v>23620</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -11637,10 +11594,10 @@
         <v>1798</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>25</v>
@@ -11657,7 +11614,7 @@
         <v>2499</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F12" s="5">
         <v>48</v>
@@ -11676,17 +11633,11 @@
       <c r="B13" s="5">
         <v>24999</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="5">
-        <v>55312</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -11696,17 +11647,11 @@
       <c r="B14" s="5">
         <v>1996</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="5">
-        <v>50</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="5">
-        <v>126755</v>
+        <v>122257</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -11762,15 +11707,15 @@
         <v>13</v>
       </c>
       <c r="I18" s="5">
-        <v>14661</v>
+        <v>14810</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5">
-        <v>1499</v>
+        <v>1398</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>38</v>
@@ -11787,10 +11732,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5">
-        <v>1398</v>
+        <v>598</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
@@ -11807,10 +11752,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5">
-        <v>598</v>
+        <v>1198</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>12</v>
@@ -11827,10 +11772,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5">
-        <v>1198</v>
+        <v>2499</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>35</v>
@@ -11847,16 +11792,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5">
-        <v>2499</v>
+        <v>1999</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="5">
-        <v>14585</v>
+        <v>11586</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>27</v>
@@ -11867,7 +11812,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5">
         <v>1999</v>
@@ -11876,27 +11821,27 @@
         <v>31</v>
       </c>
       <c r="F24" s="5">
-        <v>34984</v>
+        <v>33485</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="5">
-        <v>5551</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5">
-        <v>1999</v>
+        <v>2899</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F25" s="5">
-        <v>126755</v>
+        <v>122257</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -11907,10 +11852,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5">
-        <v>2899</v>
+        <v>1299</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>18</v>
@@ -11921,7 +11866,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5">
         <v>1299</v>
@@ -11935,10 +11880,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5">
-        <v>1299</v>
+        <v>799</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>22</v>
@@ -11949,10 +11894,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5">
-        <v>799</v>
+        <v>1299</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>12</v>
@@ -11963,10 +11908,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B30" s="5">
-        <v>1299</v>
+        <v>894</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>35</v>
@@ -11977,10 +11922,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B31" s="5">
-        <v>894</v>
+        <v>1995</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>27</v>
@@ -11991,10 +11936,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B32" s="5">
-        <v>1995</v>
+        <v>998</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>31</v>
@@ -12005,10 +11950,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5">
-        <v>998</v>
+        <v>1797</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>28</v>
@@ -12019,10 +11964,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="B34" s="5">
-        <v>1797</v>
+        <v>999</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>18</v>
@@ -12033,10 +11978,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B35" s="5">
-        <v>999</v>
+        <v>7999</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>38</v>
@@ -12047,10 +11992,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5">
-        <v>7999</v>
+        <v>897</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>12</v>
@@ -12061,10 +12006,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B37" s="5">
-        <v>897</v>
+        <v>1497</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>27</v>
@@ -12075,10 +12020,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B38" s="5">
-        <v>1497</v>
+        <v>1398</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>31</v>
@@ -12089,192 +12034,176 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>1398</v>
+        <v>2198</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I39" s="5">
-        <v>23471</v>
+        <v>23620</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5">
-        <v>2198</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B41" s="5">
-        <v>5999</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="5">
-        <v>1999</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B43" s="5">
-        <v>999</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5">
-        <v>1499</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B45" s="5">
-        <v>598</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B46" s="5">
-        <v>899</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" s="5">
-        <v>1398</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B48" s="5">
-        <v>1299</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5">
-        <v>2999</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B50" s="5">
-        <v>2499</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5">
-        <v>2997</v>
+        <v>14999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B52" s="5">
-        <v>747</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B53" s="5">
-        <v>14999</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B54" s="5">
-        <v>1497</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B55" s="5">
-        <v>1599</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B56" s="5">
-        <v>1196</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5">
-        <v>1299</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B58" s="5">
-        <v>1999</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="B59" s="5">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="5">
-        <v>126755</v>
+        <v>122257</v>
       </c>
     </row>
   </sheetData>
@@ -12287,7 +12216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12324,7 +12253,7 @@
       <c r="A2" s="11"/>
       <c r="B2" s="16">
         <f>'Pivot Table'!N5</f>
-        <v>126755</v>
+        <v>122257</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
